--- a/doc/トレードwebアプリ.xlsx
+++ b/doc/トレードwebアプリ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiro_\Desktop\HP作製\トレードアプリ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\web\trade_app\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D162046-285B-41DE-86AA-97DF7470996C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163B2EE4-37D4-4A6D-B478-F71DA446901F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{23C03A70-B8D9-4429-8272-5B8FAF152710}"/>
+    <workbookView xWindow="31280" yWindow="720" windowWidth="15040" windowHeight="9040" xr2:uid="{23C03A70-B8D9-4429-8272-5B8FAF152710}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -334,6 +334,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>v-card</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -20662,6 +20666,290 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>戻る</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>404091</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>46182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>115454</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA182DBD-97E7-403B-B25F-90A3CF9400DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1062182" y="1431637"/>
+          <a:ext cx="1027545" cy="323272"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>v-app-bar</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>290945</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>48491</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2309</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>140854</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="293" name="テキスト ボックス 292">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7409EB9-6083-4C94-9AC3-07B8BEE203DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2923309" y="4897582"/>
+          <a:ext cx="1027545" cy="323272"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>v-btn</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>604982</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>120071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>623454</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>23090</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="294" name="テキスト ボックス 293">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC4A10CC-57E7-451B-AA43-47A6E44A58D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3237346" y="1505526"/>
+          <a:ext cx="676563" cy="364837"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>v-btn</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>180110</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>99290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>198582</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2309</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="295" name="テキスト ボックス 294">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3F71C6D-668F-4D49-BAB4-D74A8A85350D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7419110" y="2177472"/>
+          <a:ext cx="676563" cy="364837"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>v-form</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -21018,7 +21306,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76D68A6-9B07-48D0-B300-6B455A63D22D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
@@ -21056,7 +21346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0786382B-EA01-4202-9EC7-2771ED914D21}">
   <dimension ref="B3:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/doc/トレードwebアプリ.xlsx
+++ b/doc/トレードwebアプリ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\web\trade_app\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163B2EE4-37D4-4A6D-B478-F71DA446901F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B1BA0C-538F-494D-8F25-F6DF9BD25B61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31280" yWindow="720" windowWidth="15040" windowHeight="9040" xr2:uid="{23C03A70-B8D9-4429-8272-5B8FAF152710}"/>
+    <workbookView xWindow="28690" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{23C03A70-B8D9-4429-8272-5B8FAF152710}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20948,6 +20948,296 @@
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
             <a:t>v-form</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>632692</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>228598</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>288637</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="296" name="テキスト ボックス 295">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09817E3B-DBE2-4B1A-9DA8-209E4DEBFBF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11820237" y="1614053"/>
+          <a:ext cx="972127" cy="568038"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>v-card</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>v-form</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>223983</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>200891</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>184728</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>92363</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="311" name="テキスト ボックス 310">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D544DFEE-3543-4EB4-A023-77E7693A7976}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13385801" y="4588164"/>
+          <a:ext cx="618836" cy="353290"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>v-btn</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>99292</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>214746</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>60037</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>106218</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="312" name="テキスト ボックス 311">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A9458E1-7070-415C-ABFF-9A2EADE754CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11944928" y="4602019"/>
+          <a:ext cx="618836" cy="353290"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>v-btn</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>168564</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>214746</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>129309</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>106218</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="313" name="テキスト ボックス 312">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE8AB738-306D-43E6-BE75-13FCEC947B2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15962746" y="4602019"/>
+          <a:ext cx="618836" cy="353290"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>v-btn</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -21307,7 +21597,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="AE16" sqref="AE16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>

--- a/doc/トレードwebアプリ.xlsx
+++ b/doc/トレードwebアプリ.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\web\trade_app\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B1BA0C-538F-494D-8F25-F6DF9BD25B61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1CD6F6-4D62-4CC7-A6A0-602C8CE5998B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28690" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{23C03A70-B8D9-4429-8272-5B8FAF152710}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{23C03A70-B8D9-4429-8272-5B8FAF152710}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$CE$192</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -629,6 +632,9 @@
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -961,6 +967,9 @@
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -3050,16 +3059,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>215899</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>170542</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>136070</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>108858</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>184148</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>43542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104319</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>214692</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3074,8 +3083,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6175828" y="4933042"/>
-          <a:ext cx="1244599" cy="391887"/>
+          <a:off x="2808815" y="1207709"/>
+          <a:ext cx="1232504" cy="403983"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3428,6 +3437,12 @@
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -3912,6 +3927,12 @@
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -11143,6 +11164,12 @@
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -11259,16 +11286,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>175985</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>144233</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>21166</xdr:rowOff>
+      <xdr:rowOff>21167</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>277283</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>108858</xdr:rowOff>
+      <xdr:colOff>277282</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -11280,20 +11307,18 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="96" idx="2"/>
+          <a:stCxn id="96" idx="0"/>
           <a:endCxn id="315" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="12654188" y="-4710037"/>
-          <a:ext cx="4202492" cy="15950898"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector5">
+          <a:off x="12994820" y="-8384420"/>
+          <a:ext cx="22376" cy="19161883"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -5440"/>
-            <a:gd name="adj2" fmla="val 47168"/>
-            <a:gd name="adj3" fmla="val 121457"/>
+            <a:gd name="adj1" fmla="val 4243279"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="38100">
@@ -12011,6 +12036,12 @@
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -13730,9 +13761,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
           </a:schemeClr>
         </a:solidFill>
       </xdr:spPr>
@@ -14176,9 +14207,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
           </a:schemeClr>
         </a:solidFill>
       </xdr:spPr>
@@ -14400,9 +14431,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
           </a:schemeClr>
         </a:solidFill>
       </xdr:spPr>
@@ -14451,7 +14482,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>個人情報の取り扱い</a:t>
+            <a:t>プライバシーポリシー</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
@@ -15066,16 +15097,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>486834</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>137583</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>64</xdr:col>
-      <xdr:colOff>325970</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>122767</xdr:rowOff>
+      <xdr:colOff>156637</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>101601</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15090,16 +15121,16 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="40671750" y="11715750"/>
-          <a:ext cx="2326220" cy="853017"/>
+          <a:off x="39856834" y="12477750"/>
+          <a:ext cx="2294470" cy="895351"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
           </a:schemeClr>
         </a:solidFill>
       </xdr:spPr>
@@ -17348,81 +17379,86 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>22225</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>318558</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>138641</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="514" name="正方形/長方形 513">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EE2F6F5-952E-4B38-BF9A-CEC4008CDC36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="41360725" y="14912975"/>
+          <a:ext cx="2296583" cy="560916"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>問い合わせ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>63</xdr:col>
-      <xdr:colOff>462493</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>17990</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>70</xdr:col>
-      <xdr:colOff>584201</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="490" name="コネクタ: カギ線 489">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68775D94-52D7-4E33-BC36-EC0775F043A0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="489" idx="2"/>
-          <a:endCxn id="493" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="44490217" y="11775016"/>
-          <a:ext cx="744009" cy="4788958"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>68</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>73</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>158751</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="493" name="四角形: 角を丸くする 492">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A13535F1-7050-46F9-96ED-E5E0B37E7BE4}"/>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>122768</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="515" name="楕円 514">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{436882A3-AB4C-48F2-BAFD-4587BDF3B3E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17430,66 +17466,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="45720000" y="14541500"/>
-          <a:ext cx="3073400" cy="3841751"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>68</xdr:col>
-      <xdr:colOff>168275</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>168275</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>73</xdr:col>
-      <xdr:colOff>231779</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>132293</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="498" name="楕円 497">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F287318-6408-4774-B3AB-763F3FE3726D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="45507275" y="13058775"/>
-          <a:ext cx="3397254" cy="853018"/>
+          <a:off x="39973250" y="17272000"/>
+          <a:ext cx="2127250" cy="853018"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -17540,7 +17518,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>よくあるお問い合わせ一覧</a:t>
+            <a:t>問い合わせ</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
@@ -17552,23 +17530,81 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>69</xdr:col>
-      <xdr:colOff>206375</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>72</xdr:col>
-      <xdr:colOff>502708</xdr:colOff>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>503767</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>52916</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="501" name="正方形/長方形 500">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76814031-9056-4496-BE1C-32AD19158225}"/>
+      <xdr:rowOff>138640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>31749</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="516" name="コネクタ: カギ線 515">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4238D93-7A21-4379-A42B-6D52747661C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="514" idx="2"/>
+          <a:endCxn id="519" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="41126304" y="16856603"/>
+          <a:ext cx="2782359" cy="16933"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="519" name="四角形: 角を丸くする 518">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E995C2B-AEA4-403C-A3A4-F21A40F6C61B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17576,196 +17612,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="46212125" y="14827250"/>
-          <a:ext cx="2296583" cy="560916"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>お問い合わせ詳細</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>69</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>72</xdr:col>
-      <xdr:colOff>512233</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>78316</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="504" name="正方形/長方形 503">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{402708EB-3E0B-43AD-A777-59ADA7D7C025}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="46221650" y="15519400"/>
-          <a:ext cx="2296583" cy="560916"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>お問い合わせ詳細</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>69</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>72</xdr:col>
-      <xdr:colOff>537633</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>135466</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="505" name="正方形/長方形 504">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8926BFF-2A50-461A-84E9-1E6162484AB0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="46247050" y="16243300"/>
-          <a:ext cx="2296583" cy="560916"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>お問い合わせ詳細</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>75</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>79</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>41276</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="506" name="四角形: 角を丸くする 505">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9E96922-396D-49F9-9F31-8AAFFA9E59FA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="50158650" y="14646275"/>
+          <a:off x="40989250" y="18256250"/>
           <a:ext cx="3073400" cy="3841751"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -17799,23 +17646,372 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>75</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>80</xdr:col>
-      <xdr:colOff>130179</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>46568</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="507" name="楕円 506">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAFE244D-9691-4637-BBE7-55153A303D09}"/>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>218623</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>13756</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="523" name="テキスト ボックス 522">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F1F2A22-CE86-4E58-8DA7-9B240E482C0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="41370250" y="16113125"/>
+          <a:ext cx="853623" cy="347131"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>111125</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>297998</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>61381</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="524" name="テキスト ボックス 523">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E2F3D33-D259-4C7B-BE0A-C2A9B64A2F29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="41449625" y="21494750"/>
+          <a:ext cx="853623" cy="347131"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>612775</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>364824</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>68792</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="525" name="テキスト ボックス 524">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D15A33AA-45BF-40EA-906C-9E0505B5889A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="41284525" y="18646775"/>
+          <a:ext cx="2419049" cy="980017"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>内容</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>364673</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>64556</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="526" name="テキスト ボックス 525">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E578A90-D96F-4FE2-BE77-5ACC55F69F71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="42849800" y="21497925"/>
+          <a:ext cx="853623" cy="347131"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>送る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>64556</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>604612</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="527" name="コネクタ: カギ線 526">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F90AF715-50CF-417D-B255-22F2ABB9CD9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="526" idx="2"/>
+          <a:endCxn id="529" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="41996934" y="22723322"/>
+          <a:ext cx="2157944" cy="401412"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>63501</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="529" name="四角形: 角を丸くする 528">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC7F0261-0C27-4FFC-82E1-CED1FDC99CA5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17823,8 +18019,269 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="50072925" y="13195300"/>
-          <a:ext cx="3397254" cy="853018"/>
+          <a:off x="41338500" y="24003000"/>
+          <a:ext cx="3073400" cy="3841751"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>47324</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>37042</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="530" name="テキスト ボックス 529">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89FC3743-34A7-40F1-8F5F-ED01F239226F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="41633775" y="24393525"/>
+          <a:ext cx="2419049" cy="980017"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ありがとう</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>206375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="532" name="テキスト ボックス 531">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{588DE92B-CC09-4627-AFD0-05228EDFC2FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="41767125" y="27098625"/>
+          <a:ext cx="2286000" cy="587375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>問い合わせトップ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>206375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>289983</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="533" name="四角形: 角を丸くする 532">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8774F990-2A45-437A-BE86-CD4AAF578DEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="34544000" y="17097375"/>
+          <a:ext cx="3083983" cy="3841751"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>29633</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>96309</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="534" name="楕円 533">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09384C04-62E6-4137-90F2-4C6804452969}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="34353500" y="16049625"/>
+          <a:ext cx="1680633" cy="715434"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -17875,7 +18332,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>お問い合わせ詳細内容</a:t>
+            <a:t>出品履歴</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
@@ -17887,41 +18344,39 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>71</xdr:col>
-      <xdr:colOff>56092</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>77</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>135466</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>230869</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>12549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>81493</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>206374</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="508" name="コネクタ: カギ線 507">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAB69A07-A74C-4FB2-A197-1428E52C14E3}"/>
+        <xdr:cNvPr id="535" name="コネクタ: カギ線 534">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6387B3D3-5440-41D2-BA7D-92A44ECF2CE0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="505" idx="2"/>
-          <a:endCxn id="506" idx="0"/>
+          <a:stCxn id="221" idx="2"/>
+          <a:endCxn id="533" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="48466375" y="13575242"/>
-          <a:ext cx="2157941" cy="4300008"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector5">
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="25062393" y="6073775"/>
+          <a:ext cx="193825" cy="21853374"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -10593"/>
-            <a:gd name="adj2" fmla="val 45484"/>
-            <a:gd name="adj3" fmla="val 110593"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="38100">
@@ -17947,241 +18402,81 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>69</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>70</xdr:col>
-      <xdr:colOff>386898</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>150281</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="511" name="テキスト ボックス 510">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F5B80B6-F3D2-4732-972B-D1ACBE2B1F14}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="46205775" y="17805400"/>
-          <a:ext cx="853623" cy="347131"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2">
-            <a:lumMod val="90000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>607483</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="567" name="四角形: 角を丸くする 566">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{095A22C1-F8F3-4E96-BB4F-20B8F7FE9F9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25527000" y="19272250"/>
+          <a:ext cx="3083983" cy="3841751"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>戻る</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>75</xdr:col>
-      <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>79</xdr:col>
-      <xdr:colOff>291799</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>27517</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="512" name="テキスト ボックス 511">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39ACA08B-61EB-476C-A0FA-488D9AB23C71}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="50546000" y="14827250"/>
-          <a:ext cx="2419049" cy="980017"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>内容</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>75</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>77</xdr:col>
-      <xdr:colOff>139248</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>45506</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="513" name="テキスト ボックス 512">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A53D107-F0C2-49F0-9F7F-2FEA46072863}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="50625375" y="17922875"/>
-          <a:ext cx="853623" cy="347131"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2">
-            <a:lumMod val="90000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>戻る</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>22225</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>22225</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>65</xdr:col>
-      <xdr:colOff>318558</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>138641</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="514" name="正方形/長方形 513">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EE2F6F5-952E-4B38-BF9A-CEC4008CDC36}"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>378883</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>112184</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="568" name="楕円 567">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{052C2AAF-ABD1-46F3-B750-FD0010B4C31A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18189,71 +18484,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="41360725" y="14912975"/>
-          <a:ext cx="2296583" cy="560916"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>問い合わせ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>63</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>122768</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="515" name="楕円 514">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{436882A3-AB4C-48F2-BAFD-4587BDF3B3E3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="39973250" y="17272000"/>
-          <a:ext cx="2127250" cy="853018"/>
+          <a:off x="27368500" y="18510250"/>
+          <a:ext cx="1680633" cy="715434"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -18304,7 +18536,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>問い合わせ</a:t>
+            <a:t>購入履歴</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
@@ -18316,35 +18548,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>63</xdr:col>
-      <xdr:colOff>503767</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>138640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>63</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>31749</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>243568</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>203050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>398992</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="516" name="コネクタ: カギ線 515">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4238D93-7A21-4379-A42B-6D52747661C2}"/>
+        <xdr:cNvPr id="569" name="コネクタ: カギ線 568">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF829C3F-9BF3-40C0-84A8-09C857B01C1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="514" idx="2"/>
-          <a:endCxn id="519" idx="0"/>
+          <a:stCxn id="222" idx="2"/>
+          <a:endCxn id="567" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="41126304" y="16856603"/>
-          <a:ext cx="2782359" cy="16933"/>
+          <a:off x="20012555" y="12215813"/>
+          <a:ext cx="1289200" cy="12823674"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -18374,23 +18606,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>66</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="519" name="四角形: 角を丸くする 518">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E995C2B-AEA4-403C-A3A4-F21A40F6C61B}"/>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>206375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>201083</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>100541</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="573" name="正方形/長方形 572">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AEA9235-D23E-4B06-B2BA-4BDB3CBF0802}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18398,25 +18630,27 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="40989250" y="18256250"/>
-          <a:ext cx="3073400" cy="3841751"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:off x="25908000" y="19542125"/>
+          <a:ext cx="2296583" cy="560916"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -18432,23 +18666,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>63</xdr:col>
-      <xdr:colOff>218623</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>13756</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="523" name="テキスト ボックス 522">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F1F2A22-CE86-4E58-8DA7-9B240E482C0E}"/>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>637115</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>109765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>21165</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>165101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="574" name="テキスト ボックス 573">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C65F1EA4-E01F-49C8-A90F-C032C81AA058}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18456,8 +18690,746 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="41370250" y="16113125"/>
-          <a:ext cx="853623" cy="347131"/>
+          <a:off x="26640365" y="19667765"/>
+          <a:ext cx="717550" cy="277586"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>商品詳細</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>194733</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>157691</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="575" name="正方形/長方形 574">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B5750D0-002F-4C91-9FA3-F793386B2F74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25901650" y="20266025"/>
+          <a:ext cx="2296583" cy="560916"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>630765</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>166915</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>14815</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="576" name="テキスト ボックス 575">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57D7D5FD-EA5F-45A7-A1B7-DD506FEAD182}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26634015" y="20391665"/>
+          <a:ext cx="717550" cy="277586"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>商品詳細</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>220133</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>198966</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="577" name="正方形/長方形 576">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{748871D6-6501-4383-9208-03F8821F12F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25927050" y="20974050"/>
+          <a:ext cx="2296583" cy="560916"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>656165</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>208190</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>40215</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>41276</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="578" name="テキスト ボックス 577">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2242E57-2A10-4B84-B983-B0BDD2FCA898}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26659415" y="21099690"/>
+          <a:ext cx="717550" cy="277586"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>商品詳細</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>575733</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>221191</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="579" name="正方形/長方形 578">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2565D09D-D5A7-4FFC-B628-2C78F7E0CD7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="34950400" y="17440275"/>
+          <a:ext cx="2296583" cy="560916"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>345015</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>8165</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>395815</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>63501</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="580" name="テキスト ボックス 579">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{738DE97E-6986-4A28-81F0-42ABC3F67004}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="35682765" y="17565915"/>
+          <a:ext cx="717550" cy="277586"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>商品詳細</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>288925</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>585258</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>40216</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="581" name="正方形/長方形 580">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38F01D12-955F-44F1-BFA3-379601E21EAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="34959925" y="18148300"/>
+          <a:ext cx="2296583" cy="560916"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>354540</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>49440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>405340</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="582" name="テキスト ボックス 581">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5328E8EC-6D75-4060-914F-8B0186BCFD73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="35692290" y="18273940"/>
+          <a:ext cx="717550" cy="277586"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>商品詳細</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>594783</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>208491</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="583" name="正方形/長方形 582">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2379EAA-DEA1-4A49-A382-297A500A8C83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="34969450" y="18983325"/>
+          <a:ext cx="2296583" cy="560916"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>364065</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>217715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>414865</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>50801</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="584" name="テキスト ボックス 583">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90AB37D1-3236-4B67-9D6F-DC8006911E8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="35701815" y="19108965"/>
+          <a:ext cx="717550" cy="277586"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>商品詳細</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>139248</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>57148</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="585" name="テキスト ボックス 584">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65C8A29B-C3A2-47A2-8F52-17AEA01134A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25955625" y="22606000"/>
+          <a:ext cx="853623" cy="342898"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18505,23 +19477,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>111125</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>63</xdr:col>
-      <xdr:colOff>297998</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>61381</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="524" name="テキスト ボックス 523">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E2F3D33-D259-4C7B-BE0A-C2A9B64A2F29}"/>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>301625</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>206375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>488498</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>104773</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="586" name="テキスト ボックス 585">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E00B9911-2444-4383-BDDB-52FC3D429DA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18529,8 +19501,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="41449625" y="21494750"/>
-          <a:ext cx="853623" cy="347131"/>
+          <a:off x="34972625" y="20431125"/>
+          <a:ext cx="853623" cy="342898"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18578,23 +19550,199 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>612775</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>65</xdr:col>
-      <xdr:colOff>364824</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>68792</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="525" name="テキスト ボックス 524">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D15A33AA-45BF-40EA-906C-9E0505B5889A}"/>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>436034</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>173560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>405342</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>198966</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="287" name="コネクタ: カギ線 286">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1484568C-8063-4D3E-83A7-2029175E2009}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="577" idx="2"/>
+          <a:endCxn id="75" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="12742860" y="7202484"/>
+          <a:ext cx="4025906" cy="24639058"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector5">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -5678"/>
+            <a:gd name="adj2" fmla="val 27112"/>
+            <a:gd name="adj3" fmla="val 154180"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>113242</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>208490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>155575</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>63499</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="302" name="コネクタ: カギ線 301">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A5EFD4F-8F6A-471C-8A52-9CBF8ACF7166}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="583" idx="2"/>
+          <a:endCxn id="303" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="34877904" y="20784078"/>
+          <a:ext cx="2522009" cy="42333"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>358775</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="303" name="四角形: 角を丸くする 302">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA0EFAF3-8F29-4D8F-90B5-C176AF7674B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="34623375" y="22066250"/>
+          <a:ext cx="3073400" cy="3841751"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>120349</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="304" name="テキスト ボックス 303">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F34065C-2D17-47F0-AAFB-1312E4B010D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18602,8 +19750,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="41284525" y="18646775"/>
-          <a:ext cx="2419049" cy="980017"/>
+          <a:off x="35039300" y="22434550"/>
+          <a:ext cx="2419049" cy="1219200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18640,33 +19788,49 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>内容</a:t>
+            <a:t>買取状況</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>65</xdr:col>
-      <xdr:colOff>364673</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>64556</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="526" name="テキスト ボックス 525">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E578A90-D96F-4FE2-BE77-5ACC55F69F71}"/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>受付日</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>交換ポイント</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>358775</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>545648</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>50798</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="310" name="テキスト ボックス 309">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA9E1352-9B3F-45E5-8DEF-5F73AE7218BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18674,8 +19838,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="42849800" y="21497925"/>
-          <a:ext cx="853623" cy="347131"/>
+          <a:off x="35029775" y="25266650"/>
+          <a:ext cx="853623" cy="342898"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18714,148 +19878,32 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>送る</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>64556</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>604612</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="527" name="コネクタ: カギ線 526">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F90AF715-50CF-417D-B255-22F2ABB9CD9F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="526" idx="2"/>
-          <a:endCxn id="529" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="41996934" y="22723322"/>
-          <a:ext cx="2157944" cy="401412"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>66</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>63501</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="529" name="四角形: 角を丸くする 528">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC7F0261-0C27-4FFC-82E1-CED1FDC99CA5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="41338500" y="24003000"/>
-          <a:ext cx="3073400" cy="3841751"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>168275</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>66</xdr:col>
-      <xdr:colOff>47324</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>37042</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="530" name="テキスト ボックス 529">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89FC3743-34A7-40F1-8F5F-ED01F239226F}"/>
+            <a:t>戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>404091</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>46182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>115454</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA182DBD-97E7-403B-B25F-90A3CF9400DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18863,14 +19911,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="41633775" y="24393525"/>
-          <a:ext cx="2419049" cy="980017"/>
+          <a:off x="1062182" y="1431637"/>
+          <a:ext cx="1027545" cy="323272"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1"/>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
         <a:ln w="9525" cmpd="sng">
           <a:solidFill>
@@ -18895,39 +19943,38 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ありがとう</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>206375</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>66</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="532" name="テキスト ボックス 531">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{588DE92B-CC09-4627-AFD0-05228EDFC2FC}"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>v-app-bar</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>290945</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>48491</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2309</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>140854</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="293" name="テキスト ボックス 292">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7409EB9-6083-4C94-9AC3-07B8BEE203DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18935,16 +19982,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="41767125" y="27098625"/>
-          <a:ext cx="2286000" cy="587375"/>
+          <a:off x="2923309" y="4897582"/>
+          <a:ext cx="1027545" cy="323272"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg2">
-            <a:lumMod val="90000"/>
-          </a:schemeClr>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
         <a:ln w="9525" cmpd="sng">
           <a:solidFill>
@@ -18969,38 +20014,470 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>問い合わせトップ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>206375</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>289983</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="533" name="四角形: 角を丸くする 532">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8774F990-2A45-437A-BE86-CD4AAF578DEC}"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>v-btn</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>604982</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>120071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>623454</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>23090</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="294" name="テキスト ボックス 293">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC4A10CC-57E7-451B-AA43-47A6E44A58D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3237346" y="1505526"/>
+          <a:ext cx="676563" cy="364837"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>v-btn</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>180110</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>99290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>198582</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2309</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="295" name="テキスト ボックス 294">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3F71C6D-668F-4D49-BAB4-D74A8A85350D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7419110" y="2177472"/>
+          <a:ext cx="676563" cy="364837"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>v-form</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>632692</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>228598</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>288637</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="296" name="テキスト ボックス 295">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09817E3B-DBE2-4B1A-9DA8-209E4DEBFBF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11820237" y="1614053"/>
+          <a:ext cx="972127" cy="568038"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>v-card</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>v-form</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>223983</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>200891</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>184728</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>92363</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="311" name="テキスト ボックス 310">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D544DFEE-3543-4EB4-A023-77E7693A7976}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13385801" y="4588164"/>
+          <a:ext cx="618836" cy="353290"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>v-btn</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>99292</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>214746</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>60037</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>106218</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="312" name="テキスト ボックス 311">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A9458E1-7070-415C-ABFF-9A2EADE754CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11944928" y="4602019"/>
+          <a:ext cx="618836" cy="353290"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>v-btn</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>168564</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>214746</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>129309</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>106218</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="313" name="テキスト ボックス 312">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE8AB738-306D-43E6-BE75-13FCEC947B2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15962746" y="4602019"/>
+          <a:ext cx="618836" cy="353290"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>v-btn</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>452967</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>230716</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>82551</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>173567</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="317" name="楕円 316">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6369B26-4D9A-45A2-8754-A033AF42F25D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19008,70 +20485,18 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="34544000" y="17097375"/>
-          <a:ext cx="3083983" cy="3841751"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>349250</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>29633</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>96309</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="534" name="楕円 533">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09384C04-62E6-4137-90F2-4C6804452969}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="34353500" y="16049625"/>
-          <a:ext cx="1680633" cy="715434"/>
+          <a:off x="31292800" y="230716"/>
+          <a:ext cx="1598084" cy="874184"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -19118,7 +20543,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>出品履歴</a:t>
+            <a:t>登録完了</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
@@ -19130,172 +20555,66 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>230869</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>12549</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>81493</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>206374</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="535" name="コネクタ: カギ線 534">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6387B3D3-5440-41D2-BA7D-92A44ECF2CE0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="221" idx="2"/>
-          <a:endCxn id="533" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="25062393" y="6073775"/>
-          <a:ext cx="193825" cy="21853374"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:tailEnd type="triangle"/>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>148167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>296333</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="318" name="テキスト ボックス 317">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE3BE2BC-1740-444D-B7EB-1AB7B8885A0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="40470667" y="13652500"/>
+          <a:ext cx="1820333" cy="359833"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>607483</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="567" name="四角形: 角を丸くする 566">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{095A22C1-F8F3-4E96-BB4F-20B8F7FE9F9C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="25527000" y="19272250"/>
-          <a:ext cx="3083983" cy="3841751"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent5"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>378883</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>112184</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="568" name="楕円 567">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{052C2AAF-ABD1-46F3-B750-FD0010B4C31A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27368500" y="18510250"/>
-          <a:ext cx="1680633" cy="715434"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -19313,7 +20632,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19322,1923 +20641,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>購入履歴</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>243568</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>203050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>398992</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="569" name="コネクタ: カギ線 568">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF829C3F-9BF3-40C0-84A8-09C857B01C1C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="222" idx="2"/>
-          <a:endCxn id="567" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="20012555" y="12215813"/>
-          <a:ext cx="1289200" cy="12823674"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>206375</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>201083</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>100541</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="573" name="正方形/長方形 572">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AEA9235-D23E-4B06-B2BA-4BDB3CBF0802}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="25908000" y="19542125"/>
-          <a:ext cx="2296583" cy="560916"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>637115</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>109765</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>21165</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>165101</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="574" name="テキスト ボックス 573">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C65F1EA4-E01F-49C8-A90F-C032C81AA058}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="26640365" y="19667765"/>
-          <a:ext cx="717550" cy="277586"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>商品詳細</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>565150</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>41275</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>194733</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>157691</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="575" name="正方形/長方形 574">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B5750D0-002F-4C91-9FA3-F793386B2F74}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="25901650" y="20266025"/>
-          <a:ext cx="2296583" cy="560916"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>630765</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>166915</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>14815</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="576" name="テキスト ボックス 575">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57D7D5FD-EA5F-45A7-A1B7-DD506FEAD182}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="26634015" y="20391665"/>
-          <a:ext cx="717550" cy="277586"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>商品詳細</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>220133</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>198966</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="577" name="正方形/長方形 576">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{748871D6-6501-4383-9208-03F8821F12F7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="25927050" y="20974050"/>
-          <a:ext cx="2296583" cy="560916"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>656165</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>208190</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>40215</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>41276</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="578" name="テキスト ボックス 577">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2242E57-2A10-4B84-B983-B0BDD2FCA898}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="26659415" y="21099690"/>
-          <a:ext cx="717550" cy="277586"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>商品詳細</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>575733</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>221191</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="579" name="正方形/長方形 578">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2565D09D-D5A7-4FFC-B628-2C78F7E0CD7F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="34950400" y="17440275"/>
-          <a:ext cx="2296583" cy="560916"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>345015</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>8165</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>395815</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>63501</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="580" name="テキスト ボックス 579">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{738DE97E-6986-4A28-81F0-42ABC3F67004}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="35682765" y="17565915"/>
-          <a:ext cx="717550" cy="277586"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>商品詳細</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>288925</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>585258</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>40216</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="581" name="正方形/長方形 580">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38F01D12-955F-44F1-BFA3-379601E21EAA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="34959925" y="18148300"/>
-          <a:ext cx="2296583" cy="560916"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>354540</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>49440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>405340</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="582" name="テキスト ボックス 581">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5328E8EC-6D75-4060-914F-8B0186BCFD73}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="35692290" y="18273940"/>
-          <a:ext cx="717550" cy="277586"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>商品詳細</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>298450</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>92075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>594783</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>208491</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="583" name="正方形/長方形 582">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2379EAA-DEA1-4A49-A382-297A500A8C83}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="34969450" y="18983325"/>
-          <a:ext cx="2296583" cy="560916"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>364065</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>217715</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>414865</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>50801</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="584" name="テキスト ボックス 583">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90AB37D1-3236-4B67-9D6F-DC8006911E8E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="35701815" y="19108965"/>
-          <a:ext cx="717550" cy="277586"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>商品詳細</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>139248</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>57148</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="585" name="テキスト ボックス 584">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65C8A29B-C3A2-47A2-8F52-17AEA01134A4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="25955625" y="22606000"/>
-          <a:ext cx="853623" cy="342898"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2">
-            <a:lumMod val="90000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>戻る</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>301625</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>206375</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>488498</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>104773</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="586" name="テキスト ボックス 585">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E00B9911-2444-4383-BDDB-52FC3D429DA0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="34972625" y="20431125"/>
-          <a:ext cx="853623" cy="342898"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2">
-            <a:lumMod val="90000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>戻る</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>436034</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>173560</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>405342</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>198966</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="287" name="コネクタ: カギ線 286">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1484568C-8063-4D3E-83A7-2029175E2009}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="577" idx="2"/>
-          <a:endCxn id="75" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1">
-          <a:off x="12742860" y="7202484"/>
-          <a:ext cx="4025906" cy="24639058"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector5">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -5678"/>
-            <a:gd name="adj2" fmla="val 27112"/>
-            <a:gd name="adj3" fmla="val 154180"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>113242</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>208490</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>155575</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>63499</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="302" name="コネクタ: カギ線 301">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A5EFD4F-8F6A-471C-8A52-9CBF8ACF7166}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="583" idx="2"/>
-          <a:endCxn id="303" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="34877904" y="20784078"/>
-          <a:ext cx="2522009" cy="42333"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>358775</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>127001</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="303" name="四角形: 角を丸くする 302">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA0EFAF3-8F29-4D8F-90B5-C176AF7674B0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="34623375" y="22066250"/>
-          <a:ext cx="3073400" cy="3841751"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>120349</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="304" name="テキスト ボックス 303">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F34065C-2D17-47F0-AAFB-1312E4B010D5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="35039300" y="22434550"/>
-          <a:ext cx="2419049" cy="1219200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>買取状況</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>受付日</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>交換ポイント</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>358775</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>545648</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>50798</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="310" name="テキスト ボックス 309">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA9E1352-9B3F-45E5-8DEF-5F73AE7218BB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="35029775" y="25266650"/>
-          <a:ext cx="853623" cy="342898"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2">
-            <a:lumMod val="90000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>戻る</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>404091</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>46182</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>115454</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>138545</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA182DBD-97E7-403B-B25F-90A3CF9400DA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1062182" y="1431637"/>
-          <a:ext cx="1027545" cy="323272"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>v-app-bar</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>290945</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>48491</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2309</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>140854</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="293" name="テキスト ボックス 292">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7409EB9-6083-4C94-9AC3-07B8BEE203DB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2923309" y="4897582"/>
-          <a:ext cx="1027545" cy="323272"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>v-btn</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>604982</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>120071</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>623454</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>23090</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="294" name="テキスト ボックス 293">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC4A10CC-57E7-451B-AA43-47A6E44A58D0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3237346" y="1505526"/>
-          <a:ext cx="676563" cy="364837"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>v-btn</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>180110</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>99290</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>198582</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>2309</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="295" name="テキスト ボックス 294">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3F71C6D-668F-4D49-BAB4-D74A8A85350D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7419110" y="2177472"/>
-          <a:ext cx="676563" cy="364837"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>v-form</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>632692</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>228598</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>288637</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>103909</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="296" name="テキスト ボックス 295">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09817E3B-DBE2-4B1A-9DA8-209E4DEBFBF1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11820237" y="1614053"/>
-          <a:ext cx="972127" cy="568038"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>v-card</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>v-form</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>223983</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>200891</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>184728</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>92363</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="311" name="テキスト ボックス 310">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D544DFEE-3543-4EB4-A023-77E7693A7976}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13385801" y="4588164"/>
-          <a:ext cx="618836" cy="353290"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>v-btn</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>99292</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>214746</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>60037</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>106218</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="312" name="テキスト ボックス 311">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A9458E1-7070-415C-ABFF-9A2EADE754CA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11944928" y="4602019"/>
-          <a:ext cx="618836" cy="353290"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>v-btn</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>168564</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>214746</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>129309</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>106218</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="313" name="テキスト ボックス 312">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE8AB738-306D-43E6-BE75-13FCEC947B2B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15962746" y="4602019"/>
-          <a:ext cx="618836" cy="353290"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>v-btn</a:t>
-          </a:r>
+            <a:t>v-expansion-panels</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -21596,15 +21002,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76D68A6-9B07-48D0-B300-6B455A63D22D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AE16" sqref="AE16"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="X28" zoomScale="30" zoomScaleNormal="55" zoomScaleSheetLayoutView="30" workbookViewId="0">
+      <selection activeCell="BR80" sqref="BR80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="48" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="29" max="191" man="1"/>
+  </colBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>

--- a/doc/トレードwebアプリ.xlsx
+++ b/doc/トレードwebアプリ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\web\trade_app\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1CD6F6-4D62-4CC7-A6A0-602C8CE5998B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A67ED8-01A9-4E39-9D00-99C0583D74D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{23C03A70-B8D9-4429-8272-5B8FAF152710}"/>
   </bookViews>
@@ -15428,9 +15428,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
           </a:schemeClr>
         </a:solidFill>
       </xdr:spPr>
@@ -17040,6 +17040,12 @@
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -17472,6 +17478,12 @@
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -18189,7 +18201,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>問い合わせトップ</a:t>
+            <a:t>トップ</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -21002,8 +21014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76D68A6-9B07-48D0-B300-6B455A63D22D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="X28" zoomScale="30" zoomScaleNormal="55" zoomScaleSheetLayoutView="30" workbookViewId="0">
-      <selection activeCell="BR80" sqref="BR80"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="30" zoomScaleNormal="55" zoomScaleSheetLayoutView="30" workbookViewId="0">
+      <selection activeCell="BR115" sqref="BR115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>

--- a/doc/トレードwebアプリ.xlsx
+++ b/doc/トレードwebアプリ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\web\trade_app\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A67ED8-01A9-4E39-9D00-99C0583D74D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509066D6-BDE3-4134-BEE1-46698685875D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{23C03A70-B8D9-4429-8272-5B8FAF152710}"/>
   </bookViews>
@@ -149,6 +149,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF66FF"/>
       <color rgb="FFE1A6F8"/>
     </mruColors>
   </colors>
@@ -2343,6 +2344,9 @@
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF66FF"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -3438,10 +3442,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
+          <a:srgbClr val="FF66FF"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -5487,6 +5488,9 @@
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF66FF"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -5633,6 +5637,12 @@
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -6933,137 +6943,19 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>312197</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>206375</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>56080</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>31738</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>105834</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>429369</xdr:colOff>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="139" name="四角形: 角を丸くする 138">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{635A18BC-07C0-4B5B-BD36-0F90192DABF8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10980197" y="12430125"/>
-          <a:ext cx="3077633" cy="2809875"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>517514</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>206376</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>599161</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>10434</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="140" name="コネクタ: カギ線 139">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E743EB02-29E5-4173-AE49-72E108041E97}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="138" idx="2"/>
-          <a:endCxn id="139" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1">
-          <a:off x="14324684" y="10624456"/>
-          <a:ext cx="470808" cy="4082147"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector5">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -48555"/>
-            <a:gd name="adj2" fmla="val 44713"/>
-            <a:gd name="adj3" fmla="val 148555"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>645571</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>63501</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>387036</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>84667</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
         <xdr:cNvPr id="143" name="テキスト ボックス 142">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
@@ -7075,8 +6967,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11313571" y="13176251"/>
-          <a:ext cx="2408465" cy="1132416"/>
+          <a:off x="15123571" y="13843001"/>
+          <a:ext cx="2366131" cy="1185332"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7124,79 +7016,6 @@
             <a:t>獲得履歴</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>312197</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>499069</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>189440</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="145" name="テキスト ボックス 144">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3909672E-F89F-4E7D-BA17-A8210CAB317C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12980447" y="14525625"/>
-          <a:ext cx="853622" cy="332315"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2">
-            <a:lumMod val="90000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>戻る</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7682,6 +7501,9 @@
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF66FF"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -11165,10 +10987,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
+          <a:srgbClr val="FF66FF"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -12037,10 +11856,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
+          <a:srgbClr val="FF66FF"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -13584,6 +13400,9 @@
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF66FF"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -13672,6 +13491,12 @@
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -14706,94 +14531,6 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>戻る</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>74083</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>427566</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>99484</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="423" name="楕円 422">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D66A2D7C-84D6-47B1-86AA-F6CC741728D6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10742083" y="12280900"/>
-          <a:ext cx="1686983" cy="709084"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ポイント履歴</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -21014,8 +20751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76D68A6-9B07-48D0-B300-6B455A63D22D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="30" zoomScaleNormal="55" zoomScaleSheetLayoutView="30" workbookViewId="0">
-      <selection activeCell="BR115" sqref="BR115"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScale="30" zoomScaleNormal="55" zoomScaleSheetLayoutView="30" workbookViewId="0">
+      <selection activeCell="Y34" sqref="Y34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>

--- a/doc/トレードwebアプリ.xlsx
+++ b/doc/トレードwebアプリ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\web\trade_app\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509066D6-BDE3-4134-BEE1-46698685875D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2D2ADA-8B4D-4F4B-AF3E-B466CCD4876C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{23C03A70-B8D9-4429-8272-5B8FAF152710}"/>
   </bookViews>
@@ -6468,9 +6468,9 @@
         </a:xfrm>
         <a:prstGeom prst="bentConnector5">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -1704"/>
-            <a:gd name="adj2" fmla="val 71803"/>
-            <a:gd name="adj3" fmla="val 101704"/>
+            <a:gd name="adj1" fmla="val -650"/>
+            <a:gd name="adj2" fmla="val 75548"/>
+            <a:gd name="adj3" fmla="val 103662"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="38100">
@@ -7413,6 +7413,12 @@
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -18035,6 +18041,12 @@
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -18239,6 +18251,12 @@
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -20751,8 +20769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76D68A6-9B07-48D0-B300-6B455A63D22D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScale="30" zoomScaleNormal="55" zoomScaleSheetLayoutView="30" workbookViewId="0">
-      <selection activeCell="Y34" sqref="Y34"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A64" zoomScale="30" zoomScaleNormal="55" zoomScaleSheetLayoutView="30" workbookViewId="0">
+      <selection activeCell="AI75" sqref="AI75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>

--- a/doc/トレードwebアプリ.xlsx
+++ b/doc/トレードwebアプリ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\web\trade_app\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2D2ADA-8B4D-4F4B-AF3E-B466CCD4876C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C54978E-293D-4D6F-8C23-236BEABAC329}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{23C03A70-B8D9-4429-8272-5B8FAF152710}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{23C03A70-B8D9-4429-8272-5B8FAF152710}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$CE$192</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -6526,6 +6527,12 @@
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -8249,6 +8256,9 @@
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF66FF"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -9127,6 +9137,9 @@
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF66FF"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -10144,6 +10157,12 @@
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -19398,8 +19417,8 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
           <a:stCxn id="583" idx="2"/>
-          <a:endCxn id="303" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -19431,225 +19450,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>358775</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>127001</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="303" name="四角形: 角を丸くする 302">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA0EFAF3-8F29-4D8F-90B5-C176AF7674B0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="34623375" y="22066250"/>
-          <a:ext cx="3073400" cy="3841751"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>120349</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="304" name="テキスト ボックス 303">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F34065C-2D17-47F0-AAFB-1312E4B010D5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="35039300" y="22434550"/>
-          <a:ext cx="2419049" cy="1219200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>買取状況</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>受付日</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>交換ポイント</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>358775</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>545648</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>50798</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="310" name="テキスト ボックス 309">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA9E1352-9B3F-45E5-8DEF-5F73AE7218BB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="35029775" y="25266650"/>
-          <a:ext cx="853623" cy="342898"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2">
-            <a:lumMod val="90000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>戻る</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -20413,6 +20213,108 @@
         </a:p>
         <a:p>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>195792</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>21166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>582084</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="319" name="吹き出し: 角を丸めた四角形 318">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{425BFAA3-9FFF-4B28-AC25-C622B232613C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="35628792" y="20743333"/>
+          <a:ext cx="3667125" cy="1100667"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -36152"/>
+            <a:gd name="adj2" fmla="val -66769"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ポップアップで画像</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -20769,11 +20671,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76D68A6-9B07-48D0-B300-6B455A63D22D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A64" zoomScale="30" zoomScaleNormal="55" zoomScaleSheetLayoutView="30" workbookViewId="0">
-      <selection activeCell="AI75" sqref="AI75"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A118" zoomScale="30" zoomScaleNormal="55" zoomScaleSheetLayoutView="30" workbookViewId="0">
+      <selection activeCell="V116" sqref="V116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -20793,9 +20695,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -20816,29 +20718,29 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>5</v>
       </c>

--- a/doc/トレードwebアプリ.xlsx
+++ b/doc/トレードwebアプリ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\web\trade_app\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C54978E-293D-4D6F-8C23-236BEABAC329}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EA79DC-AA7E-4F3E-AB09-BD3A8A746820}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{23C03A70-B8D9-4429-8272-5B8FAF152710}"/>
   </bookViews>
@@ -8341,6 +8341,9 @@
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF66FF"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -9502,6 +9505,9 @@
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF66FF"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -20671,7 +20677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76D68A6-9B07-48D0-B300-6B455A63D22D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A118" zoomScale="30" zoomScaleNormal="55" zoomScaleSheetLayoutView="30" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="30" workbookViewId="0">
       <selection activeCell="V116" sqref="V116"/>
     </sheetView>
   </sheetViews>

--- a/doc/トレードwebアプリ.xlsx
+++ b/doc/トレードwebアプリ.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\web\trade_app\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EA79DC-AA7E-4F3E-AB09-BD3A8A746820}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0844B13-F67B-4CFC-AEC9-79A2307EC249}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{23C03A70-B8D9-4429-8272-5B8FAF152710}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" activeTab="1" xr2:uid="{23C03A70-B8D9-4429-8272-5B8FAF152710}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="実装したい" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$CE$192</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <r>
       <t>Nuxt.js は </t>
@@ -76,6 +77,29 @@
   </si>
   <si>
     <t>@click:append="ShowPassword = !ShowPassword"</t>
+  </si>
+  <si>
+    <t>検索機能</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>絞り込み機能</t>
+    <rPh sb="0" eb="1">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -10367,6 +10391,9 @@
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF66FF"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -20677,8 +20704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76D68A6-9B07-48D0-B300-6B455A63D22D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="30" workbookViewId="0">
-      <selection activeCell="V116" sqref="V116"/>
+    <sheetView topLeftCell="A95" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="30" workbookViewId="0">
+      <selection activeCell="H105" sqref="H105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -20694,6 +20721,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6384590-8847-4E01-827F-E4FC8983499F}">
+  <dimension ref="B2:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A94C57-5778-47D5-B72A-B08958F1FA79}">
   <dimension ref="B2"/>
   <sheetViews>
@@ -20716,7 +20770,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0786382B-EA01-4202-9EC7-2771ED914D21}">
   <dimension ref="B3:B8"/>
   <sheetViews>
